--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W15_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W15_H200_B16.xlsx
@@ -502,22 +502,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5480769230769231</v>
+        <v>0.5463917525773195</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9293478260869565</v>
+        <v>0.8641304347826086</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5389221556886228</v>
+        <v>0.5299401197604791</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6895161290322581</v>
+        <v>0.6694736842105262</v>
       </c>
       <c r="G2" t="n">
         <v>0.4760479041916167</v>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08106914115805948</v>
+        <v>0.07977933603602368</v>
       </c>
       <c r="J2" t="n">
-        <v>1026.514677062189</v>
+        <v>1026.647701208094</v>
       </c>
       <c r="K2" t="n">
-        <v>1458930.824716982</v>
+        <v>1532264.758766077</v>
       </c>
       <c r="L2" t="n">
-        <v>1207.862088450905</v>
+        <v>1237.84682362806</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7294600571200599</v>
+        <v>0.715861222965156</v>
       </c>
     </row>
   </sheetData>
